--- a/xlsx4/xlsx4test.xlsx
+++ b/xlsx4/xlsx4test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tim/go/src/github.com/timliudream/GolangTraining/xlsx4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -344,15 +344,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -368,8 +368,9 @@
       <c r="E1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -381,8 +382,9 @@
         <v>141</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>21</v>
       </c>
@@ -394,12 +396,47 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>8888888</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="E4" s="1">
+        <v>99988877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="E1:F3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="B4:C8"/>
+    <mergeCell ref="E4:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
